--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1884.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1884.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.715988881411602</v>
+        <v>1.530133605003357</v>
       </c>
       <c r="B1">
-        <v>4.452828821922993</v>
+        <v>1.620538830757141</v>
       </c>
       <c r="C1">
-        <v>3.745264994648466</v>
+        <v>2.183976173400879</v>
       </c>
       <c r="D1">
-        <v>1.05239324935349</v>
+        <v>4.027495861053467</v>
       </c>
       <c r="E1">
-        <v>0.6188841165024951</v>
+        <v>2.63889741897583</v>
       </c>
     </row>
   </sheetData>
